--- a/static/downloads/carga horaria.xlsx
+++ b/static/downloads/carga horaria.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llulai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llulai/llulai/superhorario/horario/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C7B43F-57CB-C84E-B9B3-348CFB4D3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF5A6E-9312-0C4F-A35F-CC26FE49DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3920" windowWidth="27640" windowHeight="16940" xr2:uid="{B8156046-1FFF-574D-86E3-2F917D12C3E4}"/>
+    <workbookView xWindow="10760" yWindow="3980" windowWidth="27640" windowHeight="16940" xr2:uid="{B8156046-1FFF-574D-86E3-2F917D12C3E4}"/>
   </bookViews>
   <sheets>
     <sheet name="carga horaria" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'carga horaria'!$A$1:$C$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'carga horaria'!$A$1:$D$89</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="36">
   <si>
     <t>PROFESOR</t>
   </si>
@@ -53,25 +53,43 @@
     <t>HORAS</t>
   </si>
   <si>
-    <t>Romina Zúñiga</t>
-  </si>
-  <si>
-    <t>6ºA</t>
-  </si>
-  <si>
-    <t>Ciencias</t>
-  </si>
-  <si>
-    <t>6ºB</t>
-  </si>
-  <si>
-    <t>7ºA</t>
-  </si>
-  <si>
-    <t>Ed. Tecnológica</t>
-  </si>
-  <si>
-    <t>7ºB</t>
+    <t>2ºA</t>
+  </si>
+  <si>
+    <t>2ºB</t>
+  </si>
+  <si>
+    <t>3ºA</t>
+  </si>
+  <si>
+    <t>3ºB</t>
+  </si>
+  <si>
+    <t>4ºA</t>
+  </si>
+  <si>
+    <t>4ºB</t>
+  </si>
+  <si>
+    <t>5ºA</t>
+  </si>
+  <si>
+    <t>5ºB</t>
+  </si>
+  <si>
+    <t>Artes Visuales</t>
+  </si>
+  <si>
+    <t>Ciencias Naturales</t>
+  </si>
+  <si>
+    <t>Educación Física</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Inglés</t>
   </si>
   <si>
     <t>Lenguaje</t>
@@ -80,127 +98,55 @@
     <t>Matemática</t>
   </si>
   <si>
-    <t>Historia</t>
+    <t>Música</t>
   </si>
   <si>
     <t>Orientación</t>
   </si>
   <si>
-    <t>Jessica Escobar</t>
-  </si>
-  <si>
-    <t>8ºA</t>
-  </si>
-  <si>
-    <t>8ºB</t>
-  </si>
-  <si>
-    <t>Fabiola Reyes</t>
-  </si>
-  <si>
-    <t>Mauro Lucero</t>
-  </si>
-  <si>
-    <t>Loreto Jorquera</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>Lenguaje electivo</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>Liliana Barraza</t>
-  </si>
-  <si>
-    <t>Lenguaje común</t>
-  </si>
-  <si>
-    <t>Francia Miranda</t>
-  </si>
-  <si>
-    <t>Teresa Dittus</t>
-  </si>
-  <si>
-    <t>Valentin  Araya</t>
-  </si>
-  <si>
-    <t>Alejandra Herrera</t>
-  </si>
-  <si>
-    <t>Javiera Yañez</t>
-  </si>
-  <si>
-    <t>Formación Ciudadana</t>
-  </si>
-  <si>
-    <t>Yuri Quintupurrai</t>
-  </si>
-  <si>
-    <t>Pamela Díaz</t>
-  </si>
-  <si>
-    <t>Química</t>
-  </si>
-  <si>
-    <t>Roberto González</t>
-  </si>
-  <si>
-    <t>Biología</t>
-  </si>
-  <si>
-    <t>Fisica</t>
-  </si>
-  <si>
-    <t>Fernando Agurto</t>
-  </si>
-  <si>
-    <t>Inglés</t>
-  </si>
-  <si>
-    <t>Paula Arévalo</t>
-  </si>
-  <si>
-    <t>Artes Visuales</t>
-  </si>
-  <si>
-    <t>Alicia Huerta</t>
-  </si>
-  <si>
-    <t>Ed. Física</t>
-  </si>
-  <si>
-    <t>Diego Cortés</t>
-  </si>
-  <si>
-    <t>Néstor Cayupán</t>
-  </si>
-  <si>
-    <t>Música</t>
-  </si>
-  <si>
-    <t>Sara Oñate</t>
-  </si>
-  <si>
-    <t>Filosofía</t>
-  </si>
-  <si>
-    <t>Taller de pensamiento</t>
-  </si>
-  <si>
-    <t>Historia Electivo / Biologia Electivo</t>
-  </si>
-  <si>
-    <t>1MA</t>
-  </si>
-  <si>
-    <t>1MB</t>
+    <t>Religión</t>
+  </si>
+  <si>
+    <t>Tecnología</t>
+  </si>
+  <si>
+    <t>Rodrigo Valenzuela</t>
+  </si>
+  <si>
+    <t>Claudia Pino</t>
+  </si>
+  <si>
+    <t>Paola Jara</t>
+  </si>
+  <si>
+    <t>María Rojas</t>
+  </si>
+  <si>
+    <t>Carolina Muñoz</t>
+  </si>
+  <si>
+    <t>Catalina Herrera</t>
+  </si>
+  <si>
+    <t>Felipe Contreras</t>
+  </si>
+  <si>
+    <t>Patricio Soto</t>
+  </si>
+  <si>
+    <t>Juan Fuentes</t>
+  </si>
+  <si>
+    <t>Maura Carrasco</t>
+  </si>
+  <si>
+    <t>Cristián Gutiérrez</t>
+  </si>
+  <si>
+    <t>Fernanda Cataldo</t>
+  </si>
+  <si>
+    <t>Laura Escobar</t>
   </si>
 </sst>
 </file>
@@ -572,18 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EE758-DF9D-D24F-A8EA-CC2C5E394972}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -602,195 +547,195 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -798,13 +743,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -812,13 +757,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -826,13 +771,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -840,13 +785,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -854,13 +799,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -868,13 +813,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -882,153 +827,153 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1036,83 +981,83 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1120,111 +1065,111 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1232,13 +1177,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1246,16 +1191,16 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1263,13 +1208,13 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,318 +1222,318 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
         <v>21</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
         <v>22</v>
       </c>
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
       <c r="D71">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -1596,13 +1541,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -1610,13 +1555,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
         <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -1624,111 +1569,111 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
       <c r="D76">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>19</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
       <c r="D77">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
       <c r="D78">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
         <v>19</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
       <c r="D79">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1736,41 +1681,41 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -1778,607 +1723,66 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
         <v>22</v>
       </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
       <c r="D87">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" t="s">
-        <v>35</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" t="s">
-        <v>21</v>
-      </c>
-      <c r="C122" t="s">
-        <v>50</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>50</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>50</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D89" xr:uid="{B46EE758-DF9D-D24F-A8EA-CC2C5E394972}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+      <sortCondition ref="A1:A89"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>